--- a/mcmaster_excel/Metric_Impact-Resistant_Polycarbonate_Pan_Head_Phillips_Screws.xlsx
+++ b/mcmaster_excel/Metric_Impact-Resistant_Polycarbonate_Pan_Head_Phillips_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,90 +434,100 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg., mm</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia., mm</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HeadHt., mm</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>DriveSize</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>TemperatureRange, °F</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Color</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Specifications Met</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr"/>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>M3 × 0.5 mm</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>Lg., mm</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Threading</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>HeadDia., mm</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>HeadHt., mm</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>DriveSize</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>TemperatureRange, °F</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Specifications Met</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Pkg.</t>
+        </is>
+      </c>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Polycarbonate Plastic</t>
-        </is>
-      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -575,7 +585,11 @@
           <t>$7.07</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="M3" t="inlineStr">
         <is>
           <t>Polycarbonate Plastic</t>
@@ -638,7 +652,11 @@
           <t>7.43</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="M4" t="inlineStr">
         <is>
           <t>Polycarbonate Plastic</t>
@@ -701,7 +719,11 @@
           <t>7.76</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="M5" t="inlineStr">
         <is>
           <t>Polycarbonate Plastic</t>
@@ -764,7 +786,11 @@
           <t>8.14</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="M6" t="inlineStr">
         <is>
           <t>Polycarbonate Plastic</t>
@@ -827,7 +853,11 @@
           <t>8.47</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="M7" t="inlineStr">
         <is>
           <t>Polycarbonate Plastic</t>
@@ -837,20 +867,64 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>No. 1</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-50° to 300°</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>DIN 7985, ISO 7045</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>93140A474</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
           <t>M4 × 0.7 mm</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
           <t>Polycarbonate Plastic</t>
@@ -860,7 +934,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -905,15 +979,19 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>93140A474</t>
+          <t>93140A496</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>8.83</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr"/>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="M9" t="inlineStr">
         <is>
           <t>Polycarbonate Plastic</t>
@@ -923,7 +1001,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -968,15 +1046,19 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>93140A496</t>
+          <t>93140A513</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>9.20</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr"/>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="M10" t="inlineStr">
         <is>
           <t>Polycarbonate Plastic</t>
@@ -986,7 +1068,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1031,15 +1113,19 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>93140A513</t>
+          <t>93140A552</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>9.53</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr"/>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="M11" t="inlineStr">
         <is>
           <t>Polycarbonate Plastic</t>
@@ -1049,7 +1135,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1094,15 +1180,19 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>93140A552</t>
+          <t>93140A586</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>9.93</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr"/>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="M12" t="inlineStr">
         <is>
           <t>Polycarbonate Plastic</t>
@@ -1112,7 +1202,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1122,12 +1212,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1157,15 +1247,19 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>93140A586</t>
+          <t>93140A679</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>10.24</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr"/>
+          <t>10.60</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="M13" t="inlineStr">
         <is>
           <t>Polycarbonate Plastic</t>
@@ -1175,20 +1269,64 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>No. 1</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>-50° to 300°</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>DIN 7985, ISO 7045</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>93140A699</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
           <t>M5 × 0.8 mm</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
           <t>Polycarbonate Plastic</t>
@@ -1198,7 +1336,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1243,15 +1381,19 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>93140A679</t>
+          <t>93140A713</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>10.60</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr"/>
+          <t>11.30</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="M15" t="inlineStr">
         <is>
           <t>Polycarbonate Plastic</t>
@@ -1261,7 +1403,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1306,15 +1448,19 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>93140A699</t>
+          <t>93140A763</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>11.00</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr"/>
+          <t>11.67</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="M16" t="inlineStr">
         <is>
           <t>Polycarbonate Plastic</t>
@@ -1324,7 +1470,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1369,15 +1515,19 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>93140A713</t>
+          <t>93140A814</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>11.30</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr"/>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="M17" t="inlineStr">
         <is>
           <t>Polycarbonate Plastic</t>
@@ -1387,7 +1537,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1397,17 +1547,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>No. 1</t>
+          <t>No. 2</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1432,15 +1582,19 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>93140A763</t>
+          <t>93140A816</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>11.67</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr"/>
+          <t>12.37</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="M18" t="inlineStr">
         <is>
           <t>Polycarbonate Plastic</t>
@@ -1450,7 +1604,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1460,17 +1614,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>No. 1</t>
+          <t>No. 2</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1495,15 +1649,19 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>93140A814</t>
+          <t>93140A855</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr"/>
+          <t>12.73</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="M19" t="inlineStr">
         <is>
           <t>Polycarbonate Plastic</t>
@@ -1513,20 +1671,64 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>No. 2</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>-50° to 300°</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>DIN 7985, ISO 7045</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>93140A903</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>13.06</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
           <t>M6 × 1 mm</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
           <t>Polycarbonate Plastic</t>
@@ -1536,7 +1738,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1576,20 +1778,24 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>93140A816</t>
+          <t>93140A918</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>12.37</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr"/>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="M21" t="inlineStr">
         <is>
           <t>Polycarbonate Plastic</t>
@@ -1599,7 +1805,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1639,210 +1845,25 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>93140A855</t>
+          <t>93140A947</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>12.73</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr"/>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="M22" t="inlineStr">
-        <is>
-          <t>Polycarbonate Plastic</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>No. 2</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>-50° to 300°</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Clear</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>DIN 7985, ISO 7045</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>93140A903</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>13.06</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>Polycarbonate Plastic</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>No. 2</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>-50° to 300°</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Clear</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>DIN 7985, ISO 7045</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>93140A918</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>6.71</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>Polycarbonate Plastic</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>No. 2</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>-50° to 300°</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Clear</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>DIN 7985, ISO 7045</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>93140A947</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>6.88</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
         <is>
           <t>Polycarbonate Plastic</t>
         </is>
